--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2781.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2781.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168950265983688</v>
+        <v>1.343522071838379</v>
       </c>
       <c r="B1">
-        <v>2.431262010670021</v>
+        <v>1.871571898460388</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.326613903045654</v>
       </c>
       <c r="D1">
-        <v>2.367529358294126</v>
+        <v>3.818994045257568</v>
       </c>
       <c r="E1">
-        <v>1.231359142023193</v>
+        <v>1.054131746292114</v>
       </c>
     </row>
   </sheetData>
